--- a/data/trans_dic/P78C1_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78C1_2023-Provincia-trans_dic.xlsx
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>56,14%</t>
+          <t>57,0%</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>29,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>39,42%</t>
+          <t>39,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>33,5%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,23</t>
+          <t>0,0; 75,97</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>72,38%</t>
+          <t>72,64%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>89,8%</t>
+          <t>89,7%</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>53,04; 100,0</t>
+          <t>52,61; 100,0</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>95,64%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>98,22%</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>81,42; 100,0</t>
+          <t>81,21; 100,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>91,18; 100,0</t>
+          <t>91,09; 100,0</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>89,36%</t>
+          <t>88,93%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>89,0%</t>
+          <t>88,47%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>89,2%</t>
+          <t>88,73%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>71,38; 97,48</t>
+          <t>70,27; 97,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>74,23; 97,3</t>
+          <t>72,63; 97,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>78,39; 95,23</t>
+          <t>77,39; 94,98</t>
         </is>
       </c>
     </row>
